--- a/biology/Médecine/Mésusage_du_médicament/Mésusage_du_médicament.xlsx
+++ b/biology/Médecine/Mésusage_du_médicament/Mésusage_du_médicament.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9susage_du_m%C3%A9dicament</t>
+          <t>Mésusage_du_médicament</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En médecine le mésusage du médicament ou mésusage médicamenteux désigne l'utilisation d'un médicament dans une situation où il ne devrait pas l'être, c'est-à-dire en dehors des indications reconnues.
-En France, le mésusage est défini dans le code de la santé publique comme l'« utilisation intentionnelle et inappropriée d’un médicament ou d’un produit, non conforme à l’autorisation de mise sur le marché (AMM) ou à l’enregistrement ainsi qu’aux recommandations de bonnes pratiques »[1]. 
+En France, le mésusage est défini dans le code de la santé publique comme l'« utilisation intentionnelle et inappropriée d’un médicament ou d’un produit, non conforme à l’autorisation de mise sur le marché (AMM) ou à l’enregistrement ainsi qu’aux recommandations de bonnes pratiques ». 
 Le mésusage est à rapprocher de l'abus, du dopage, de la dépendance et de l'accoutumance.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9susage_du_m%C3%A9dicament</t>
+          <t>Mésusage_du_médicament</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Liste des médicaments</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Diurétique, pour perdre de l'eau et donc du poids
 fluoxétine, pour la sensation agréable qu'elle procure
